--- a/data/match_18.xlsx
+++ b/data/match_18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B750CD-03D4-49E7-AE82-E4127FF199E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355E595D-FB63-4206-9308-ABCC39E36243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="63">
   <si>
     <t>№</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>2:3</t>
-  </si>
-  <si>
-    <t>Оксанич Кирилл</t>
   </si>
   <si>
     <t>Конаков Никита</t>
@@ -595,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,58 +653,58 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
@@ -715,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -769,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -929,7 +926,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -947,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1036,7 +1033,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1090,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1337,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="AF7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG7">
         <v>3</v>
@@ -1354,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1779,7 +1776,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -2040,16 +2037,16 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -2061,45 +2058,99 @@
         <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15">
+        <v>5</v>
+      </c>
+      <c r="X15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC15">
+        <v>5</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -2114,76 +2165,76 @@
         <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="s">
         <v>23</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16">
-        <v>5</v>
-      </c>
-      <c r="T16" t="s">
-        <v>19</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
-        <v>22</v>
-      </c>
-      <c r="W16">
-        <v>5</v>
-      </c>
-      <c r="X16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>19</v>
-      </c>
       <c r="AC16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="s">
         <v>17</v>
@@ -2192,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="AH16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -2200,19 +2251,19 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
@@ -2221,13 +2272,13 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2239,40 +2290,40 @@
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="S17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z17" t="s">
         <v>17</v>
@@ -2281,22 +2332,22 @@
         <v>0</v>
       </c>
       <c r="AB17" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="s">
         <v>19</v>
@@ -2307,73 +2358,67 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C18">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
         <v>28</v>
       </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
         <v>21</v>
       </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>17</v>
-      </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Q18">
         <v>3</v>
       </c>
       <c r="R18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X18" t="s">
         <v>22</v>
@@ -2382,140 +2427,39 @@
         <v>5</v>
       </c>
       <c r="Z18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="AC18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AG18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
-      </c>
-      <c r="R19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>22</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19" t="s">
-        <v>22</v>
-      </c>
-      <c r="W19">
-        <v>5</v>
-      </c>
-      <c r="X19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y19">
-        <v>5</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE19">
-        <v>2</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI19">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q19">
-    <sortCondition ref="B1:B19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
